--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,36 +439,23 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction}
+    <t>alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/careteam-alias}
 </t>
   </si>
   <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Identifies and conveys information about restrictions on the use or release of exchanged information, e.g. information that can only be shared under particular condition, such as a signed data use agreement between parties</t>
+    <t>Alternate name for care team</t>
+  </si>
+  <si>
+    <t>Alternate names by which the team is also known</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/careteam-alias}
-</t>
-  </si>
-  <si>
-    <t>Alternate name for care team</t>
-  </si>
-  <si>
-    <t>Alternate names by which the team is also known</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -727,7 +714,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -950,7 +937,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-CareTeam|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-PractitionerRole|http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -1224,7 +1211,7 @@
     <t>CareTeam.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner)
+    <t>Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Practitioner)
 string</t>
   </si>
   <si>
@@ -1600,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL58"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3053,15 +3040,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3071,16 +3056,16 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>155</v>
@@ -3088,8 +3073,12 @@
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3137,7 +3126,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3146,7 +3135,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>135</v>
@@ -3158,16 +3147,16 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3177,28 +3166,28 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3247,7 +3236,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3259,21 +3248,21 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3284,32 +3273,28 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N16" t="s" s="2">
         <v>169</v>
       </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3357,33 +3342,33 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3391,10 +3376,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3406,13 +3391,13 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3451,16 +3436,16 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>174</v>
@@ -3469,13 +3454,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3484,14 +3469,16 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3500,10 +3487,10 @@
         <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3512,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3557,19 +3544,19 @@
         <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3595,17 +3582,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
@@ -3614,22 +3599,26 @@
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3653,13 +3642,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3677,33 +3666,33 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3720,25 +3709,25 @@
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3763,13 +3752,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3787,7 +3776,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3805,15 +3794,15 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3836,19 +3825,19 @@
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3861,7 +3850,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3873,13 +3862,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -3897,7 +3886,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3915,15 +3904,15 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3946,20 +3935,18 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3971,7 +3958,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -4007,7 +3994,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4025,15 +4012,15 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4056,17 +4043,15 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4079,7 +4064,7 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>76</v>
@@ -4115,7 +4100,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4133,15 +4118,15 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4164,15 +4149,17 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4221,7 +4208,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4239,15 +4226,15 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4255,7 +4242,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -4264,22 +4251,22 @@
         <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4305,13 +4292,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4329,7 +4316,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4344,18 +4331,18 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4366,30 +4353,32 @@
         <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4413,13 +4402,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4437,13 +4426,13 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4452,7 +4441,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4463,7 +4452,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4471,10 +4460,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4486,20 +4475,18 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4523,37 +4510,37 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4562,7 +4549,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4577,14 +4564,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4596,18 +4583,18 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4670,7 +4657,7 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4679,13 +4666,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4695,7 +4682,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4704,18 +4691,18 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4763,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4778,7 +4765,7 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4787,9 +4774,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4800,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4812,18 +4799,18 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4871,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4886,7 +4873,7 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4897,7 +4884,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4908,7 +4895,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
@@ -4917,21 +4904,19 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4979,33 +4964,33 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5016,10 +5001,10 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5028,13 +5013,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5085,44 +5070,44 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5134,15 +5119,17 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5197,13 +5184,13 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -5212,16 +5199,16 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5234,10 +5221,10 @@
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>129</v>
@@ -5249,9 +5236,11 @@
         <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5299,7 +5288,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5320,16 +5309,16 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5339,16 +5328,16 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>287</v>
@@ -5357,11 +5346,9 @@
         <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5385,13 +5372,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5409,7 +5396,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5421,21 +5408,21 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>127</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5446,7 +5433,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>85</v>
@@ -5458,16 +5445,16 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5493,37 +5480,37 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5532,18 +5519,18 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5554,7 +5541,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
@@ -5566,18 +5553,18 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5625,7 +5612,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5640,18 +5627,18 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5662,7 +5649,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5671,10 +5658,10 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>308</v>
@@ -5683,9 +5670,7 @@
         <v>309</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5733,7 +5718,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5759,7 +5744,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5770,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>85</v>
@@ -5782,13 +5767,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5815,13 +5800,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5839,13 +5824,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -5854,7 +5839,7 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5865,7 +5850,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5888,13 +5873,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5921,13 +5906,13 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -5945,7 +5930,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5960,7 +5945,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5971,7 +5956,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5982,7 +5967,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
@@ -5991,19 +5976,21 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6051,7 +6038,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6066,7 +6053,7 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6088,7 +6075,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>85</v>
@@ -6097,21 +6084,21 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
         <v>326</v>
       </c>
+      <c r="M42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6183,9 +6170,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6196,10 +6183,10 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6208,17 +6195,15 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>328</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6267,19 +6252,19 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6288,23 +6273,23 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6316,15 +6301,17 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6361,16 +6348,16 @@
         <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>174</v>
@@ -6379,13 +6366,13 @@
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6394,16 +6381,18 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="C45" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6413,7 +6402,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6422,17 +6411,15 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6469,19 +6456,19 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6502,12 +6489,12 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>334</v>
@@ -6589,7 +6576,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6615,11 +6602,9 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B47" t="s" s="2">
         <v>338</v>
       </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6628,7 +6613,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -6637,16 +6622,16 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6673,13 +6658,13 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -6697,33 +6682,33 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6746,16 +6731,20 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6779,13 +6768,13 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
@@ -6803,7 +6792,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6801,7 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
@@ -6821,15 +6810,15 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6843,28 +6832,28 @@
         <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -6889,13 +6878,13 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
@@ -6913,7 +6902,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6931,15 +6920,15 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6956,26 +6945,24 @@
         <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -6999,13 +6986,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7023,7 +7010,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7041,15 +7028,15 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7072,17 +7059,15 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
         <v>373</v>
       </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7149,15 +7134,15 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>175</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7168,25 +7153,25 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7237,13 +7222,13 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7255,13 +7240,13 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>380</v>
       </c>
@@ -7274,10 +7259,10 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7286,13 +7271,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>381</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7343,19 +7328,19 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -7364,23 +7349,23 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7392,15 +7377,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7437,16 +7424,16 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>174</v>
@@ -7455,13 +7442,13 @@
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7470,44 +7457,44 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>129</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>161</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7545,45 +7532,45 @@
         <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>175</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7606,17 +7593,15 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7665,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7686,12 +7671,12 @@
         <v>127</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7699,7 +7684,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>84</v>
@@ -7714,13 +7699,13 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7771,10 +7756,10 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -7792,117 +7777,11 @@
         <v>127</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J58" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL58">
+  <autoFilter ref="A1:AL57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7912,7 +7791,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,6 +493,19 @@
   </si>
   <si>
     <t>An extensions indicating endpoints for the care team</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/usage-restriction}
+</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Identifies and conveys information about restrictions on the use or release of exchanged information, e.g. information that can only be shared under particular condition, such as a signed data use agreement between parties</t>
   </si>
   <si>
     <t>CareTeam.modifierExtension</t>
@@ -1587,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AL58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2608,7 +2621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>128</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2716,7 +2729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>128</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2824,7 +2837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>128</v>
       </c>
@@ -2842,7 +2855,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3042,11 +3055,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3059,13 +3074,13 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>155</v>
@@ -3073,12 +3088,8 @@
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3126,7 +3137,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3135,7 +3146,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>135</v>
@@ -3147,16 +3158,16 @@
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3166,28 +3177,28 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3236,7 +3247,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3248,21 +3259,21 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3273,28 +3284,32 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3342,33 +3357,33 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3376,11 +3391,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3391,13 +3406,13 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3436,16 +3451,16 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>174</v>
@@ -3454,13 +3469,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3469,16 +3484,14 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3487,10 +3500,10 @@
         <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3499,13 +3512,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3544,19 +3557,19 @@
         <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3580,45 +3593,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3642,13 +3653,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3666,33 +3677,33 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3706,28 +3717,28 @@
         <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3752,13 +3763,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3776,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3794,15 +3805,15 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3816,7 +3827,7 @@
         <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3825,19 +3836,19 @@
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3861,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3862,13 +3873,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -3886,7 +3897,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3904,15 +3915,15 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3926,7 +3937,7 @@
         <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3935,18 +3946,20 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3958,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -3994,7 +4007,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4012,15 +4025,15 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4034,7 +4047,7 @@
         <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4043,15 +4056,17 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4064,7 +4079,7 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>76</v>
@@ -4100,7 +4115,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4118,15 +4133,15 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4140,7 +4155,7 @@
         <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4149,17 +4164,15 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4208,7 +4221,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4226,15 +4239,15 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4242,31 +4255,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4292,13 +4305,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4316,7 +4329,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4331,18 +4344,18 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4353,32 +4366,30 @@
         <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4402,13 +4413,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4426,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4441,7 +4452,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4452,7 +4463,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4460,10 +4471,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4475,18 +4486,20 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4510,13 +4523,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4534,13 +4547,13 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4549,7 +4562,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4564,14 +4577,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4583,18 +4596,18 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4657,7 +4670,7 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4668,11 +4681,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4691,18 +4704,18 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4750,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4765,7 +4778,7 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4774,9 +4787,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4787,10 +4800,10 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4799,18 +4812,18 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4858,7 +4871,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4873,18 +4886,18 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4895,28 +4908,30 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4964,33 +4979,33 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5001,7 +5016,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5013,13 +5028,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5070,44 +5085,44 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>171</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5119,17 +5134,15 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5184,13 +5197,13 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -5199,16 +5212,16 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5221,10 +5234,10 @@
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>129</v>
@@ -5236,11 +5249,9 @@
         <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5288,7 +5299,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5309,16 +5320,16 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5328,16 +5339,16 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>287</v>
@@ -5346,9 +5357,11 @@
         <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5372,13 +5385,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5396,7 +5409,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5408,21 +5421,21 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5433,10 +5446,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5445,16 +5458,16 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5480,13 +5493,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5504,13 +5517,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5519,18 +5532,18 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5541,10 +5554,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5553,18 +5566,18 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5612,7 +5625,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5627,18 +5640,18 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5649,19 +5662,19 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>308</v>
@@ -5670,7 +5683,9 @@
         <v>309</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5718,7 +5733,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5742,9 +5757,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5755,10 +5770,10 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5767,13 +5782,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5800,13 +5815,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5824,13 +5839,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -5839,7 +5854,7 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5848,9 +5863,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5864,7 +5879,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5873,13 +5888,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5906,13 +5921,13 @@
         <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -5930,7 +5945,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5945,7 +5960,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5954,9 +5969,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5967,30 +5982,28 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6038,7 +6051,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6053,7 +6066,7 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6062,7 +6075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>323</v>
       </c>
@@ -6075,30 +6088,30 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6172,7 +6185,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6183,7 +6196,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6195,15 +6208,17 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6252,19 +6267,19 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6273,23 +6288,23 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6301,17 +6316,15 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6348,16 +6361,16 @@
         <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>174</v>
@@ -6366,13 +6379,13 @@
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6381,18 +6394,16 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6402,7 +6413,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6411,15 +6422,17 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6456,19 +6469,19 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6489,12 +6502,12 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>334</v>
@@ -6510,7 +6523,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6576,7 +6589,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6600,11 +6613,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6613,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6658,57 +6673,57 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6722,7 +6737,7 @@
         <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6731,20 +6746,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -6768,13 +6779,13 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
@@ -6792,7 +6803,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6812,7 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
@@ -6810,15 +6821,15 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6835,25 +6846,25 @@
         <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -6878,13 +6889,13 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
@@ -6902,7 +6913,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6920,15 +6931,15 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6945,24 +6956,26 @@
         <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>366</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -6986,13 +6999,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7010,7 +7023,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7028,15 +7041,15 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>171</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7059,15 +7072,17 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7134,15 +7149,15 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>375</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7153,25 +7168,25 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7222,13 +7237,13 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
@@ -7240,10 +7255,10 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7259,7 +7274,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7271,13 +7286,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7328,19 +7343,19 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -7349,23 +7364,23 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7377,17 +7392,15 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7424,16 +7437,16 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>174</v>
@@ -7442,13 +7455,13 @@
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7457,44 +7470,44 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>383</v>
+        <v>129</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>284</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>161</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7532,45 +7545,45 @@
         <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>388</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7584,7 +7597,7 @@
         <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7593,15 +7606,17 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7650,7 +7665,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7671,12 +7686,12 @@
         <v>127</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7684,13 +7699,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7699,13 +7714,13 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7756,10 +7771,10 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -7777,11 +7792,117 @@
         <v>127</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>400</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL57">
+  <autoFilter ref="A1:AL58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7791,7 +7912,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1610,9 +1610,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.28125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1628,25 +1628,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.12890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="148.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="148.80859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
